--- a/biology/Botanique/Caisse_de_Ward/Caisse_de_Ward.xlsx
+++ b/biology/Botanique/Caisse_de_Ward/Caisse_de_Ward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La caisse de Ward ou châssis de Ward (en anglais Wardian case) est l'ancêtre des terrarium modernes (et des aquariums en verre). Serre portable destinée au transport sur longue distance des espèces végétales, elle est inventée par le docteur Nathaniel Bagshaw Ward (1791–1868), à Londres, autour de 1829 à l'issue d'une découverte accidentelle qui lui inspira sa construction.
 </t>
@@ -511,7 +523,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Ward était un médecin, passionné par la botanique. L'herbarium qu'il avait personnellement récolté contenait pas moins de 25 000 spécimens. Les fougères de son jardin londonien de Wellclose Square, souffraient de la pollution de l'air, due aux fumées de charbon et aux pluies acides. Il observa que dans les flacons où il conservait des cocons d'Hétérocères, les spores de ces fougères germaient et se développaient dans seulement très peu de terre. Il fit construire par un menuisier une caisse en bois vitrée, afin d'assurer son étanchéité, et dont seul le châssis était amovible, et il découvrit que les spores de fougères qu'il plaça à l'intérieur se développaient parfaitement.
 Le docteur Ward publie les résultats de son expérience, suivie d'un livre en 1842, intitulé On the Growth of Plants in Closely Glazed Cases (De la croissance des plantes dans des caisses vitrées hermétiques ).
